--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3377,28 +3377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1036.228920497871</v>
+        <v>1131.110714902169</v>
       </c>
       <c r="AB2" t="n">
-        <v>1417.814124218743</v>
+        <v>1547.635581212047</v>
       </c>
       <c r="AC2" t="n">
-        <v>1282.499934117927</v>
+        <v>1399.931413461349</v>
       </c>
       <c r="AD2" t="n">
-        <v>1036228.920497871</v>
+        <v>1131110.714902169</v>
       </c>
       <c r="AE2" t="n">
-        <v>1417814.124218743</v>
+        <v>1547635.581212047</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.378082655986951e-06</v>
+        <v>1.986732724988393e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.05403645833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1282499.934117927</v>
+        <v>1399931.413461349</v>
       </c>
     </row>
     <row r="3">
@@ -3483,28 +3483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>518.6498740850136</v>
+        <v>578.9981973073774</v>
       </c>
       <c r="AB3" t="n">
-        <v>709.6396389406859</v>
+        <v>792.2108771536431</v>
       </c>
       <c r="AC3" t="n">
-        <v>641.9126277856745</v>
+        <v>716.603382913048</v>
       </c>
       <c r="AD3" t="n">
-        <v>518649.8740850136</v>
+        <v>578998.1973073774</v>
       </c>
       <c r="AE3" t="n">
-        <v>709639.6389406859</v>
+        <v>792210.8771536431</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.148445799249034e-06</v>
+        <v>3.097337854655008e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.14713541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>641912.6277856745</v>
+        <v>716603.382913048</v>
       </c>
     </row>
     <row r="4">
@@ -3589,28 +3589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>423.8346728696407</v>
+        <v>475.549628296521</v>
       </c>
       <c r="AB4" t="n">
-        <v>579.9092976863528</v>
+        <v>650.6679812042236</v>
       </c>
       <c r="AC4" t="n">
-        <v>524.5635682229777</v>
+        <v>588.5691422963389</v>
       </c>
       <c r="AD4" t="n">
-        <v>423834.6728696406</v>
+        <v>475549.628296521</v>
       </c>
       <c r="AE4" t="n">
-        <v>579909.2976863529</v>
+        <v>650667.9812042236</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.441241680629459e-06</v>
+        <v>3.51945125747097e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>524563.5682229777</v>
+        <v>588569.1422963389</v>
       </c>
     </row>
     <row r="5">
@@ -3695,28 +3695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>380.2504208245603</v>
+        <v>432.0506275974612</v>
       </c>
       <c r="AB5" t="n">
-        <v>520.2754012367784</v>
+        <v>591.1507294072984</v>
       </c>
       <c r="AC5" t="n">
-        <v>470.6210471538512</v>
+        <v>534.7321334779248</v>
       </c>
       <c r="AD5" t="n">
-        <v>380250.4208245603</v>
+        <v>432050.6275974612</v>
       </c>
       <c r="AE5" t="n">
-        <v>520275.4012367784</v>
+        <v>591150.7294072984</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.599683839654518e-06</v>
+        <v>3.747871679849378e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.689453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>470621.0471538512</v>
+        <v>534732.1334779247</v>
       </c>
     </row>
     <row r="6">
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>360.6086967992552</v>
+        <v>412.238311371564</v>
       </c>
       <c r="AB6" t="n">
-        <v>493.4007278936487</v>
+        <v>564.0426442893217</v>
       </c>
       <c r="AC6" t="n">
-        <v>446.311254915749</v>
+        <v>510.2112059571713</v>
       </c>
       <c r="AD6" t="n">
-        <v>360608.6967992552</v>
+        <v>412238.3113715639</v>
       </c>
       <c r="AE6" t="n">
-        <v>493400.7278936487</v>
+        <v>564042.6442893217</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.693703435493194e-06</v>
+        <v>3.883416385409223e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.28255208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>446311.254915749</v>
+        <v>510211.2059571713</v>
       </c>
     </row>
     <row r="7">
@@ -3907,28 +3907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>335.6947460274046</v>
+        <v>387.409611945734</v>
       </c>
       <c r="AB7" t="n">
-        <v>459.312361321667</v>
+        <v>530.0709223699894</v>
       </c>
       <c r="AC7" t="n">
-        <v>415.4762342060742</v>
+        <v>479.4816974982089</v>
       </c>
       <c r="AD7" t="n">
-        <v>335694.7460274046</v>
+        <v>387409.611945734</v>
       </c>
       <c r="AE7" t="n">
-        <v>459312.361321667</v>
+        <v>530070.9223699893</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.765595281367852e-06</v>
+        <v>3.987060301279214e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>415476.2342060742</v>
+        <v>479481.6974982088</v>
       </c>
     </row>
     <row r="8">
@@ -4013,28 +4013,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>323.7369508185575</v>
+        <v>375.4518167368868</v>
       </c>
       <c r="AB8" t="n">
-        <v>442.9511783762297</v>
+        <v>513.709739424552</v>
       </c>
       <c r="AC8" t="n">
-        <v>400.676539597885</v>
+        <v>464.6820028900196</v>
       </c>
       <c r="AD8" t="n">
-        <v>323736.9508185575</v>
+        <v>375451.8167368867</v>
       </c>
       <c r="AE8" t="n">
-        <v>442951.1783762297</v>
+        <v>513709.7394245521</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.814145618841647e-06</v>
+        <v>4.057053595113493e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.80078125</v>
       </c>
       <c r="AH8" t="n">
-        <v>400676.539597885</v>
+        <v>464682.0028900196</v>
       </c>
     </row>
     <row r="9">
@@ -4119,28 +4119,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>313.7091112770293</v>
+        <v>365.4239771953587</v>
       </c>
       <c r="AB9" t="n">
-        <v>429.2306459184533</v>
+        <v>499.9892069667756</v>
       </c>
       <c r="AC9" t="n">
-        <v>388.2654755009904</v>
+        <v>452.270938793125</v>
       </c>
       <c r="AD9" t="n">
-        <v>313709.1112770293</v>
+        <v>365423.9771953587</v>
       </c>
       <c r="AE9" t="n">
-        <v>429230.6459184533</v>
+        <v>499989.2069667756</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.847570658871683e-06</v>
+        <v>4.105241285868632e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.673828125</v>
       </c>
       <c r="AH9" t="n">
-        <v>388265.4755009904</v>
+        <v>452270.938793125</v>
       </c>
     </row>
     <row r="10">
@@ -4225,28 +4225,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>305.3619065430073</v>
+        <v>357.0767724613366</v>
       </c>
       <c r="AB10" t="n">
-        <v>417.8096321486813</v>
+        <v>488.5681931970036</v>
       </c>
       <c r="AC10" t="n">
-        <v>377.934467255912</v>
+        <v>441.9399305480467</v>
       </c>
       <c r="AD10" t="n">
-        <v>305361.9065430072</v>
+        <v>357076.7724613366</v>
       </c>
       <c r="AE10" t="n">
-        <v>417809.6321486813</v>
+        <v>488568.1931970036</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.873059586045425e-06</v>
+        <v>4.141987765131628e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.57942708333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>377934.467255912</v>
+        <v>441939.9305480467</v>
       </c>
     </row>
     <row r="11">
@@ -4331,28 +4331,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>302.6246034055548</v>
+        <v>345.8767832375439</v>
       </c>
       <c r="AB11" t="n">
-        <v>414.0643332347273</v>
+        <v>473.2438738323583</v>
       </c>
       <c r="AC11" t="n">
-        <v>374.5466144137457</v>
+        <v>428.0781427157459</v>
       </c>
       <c r="AD11" t="n">
-        <v>302624.6034055548</v>
+        <v>345876.7832375439</v>
       </c>
       <c r="AE11" t="n">
-        <v>414064.3332347273</v>
+        <v>473243.8738323583</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.885757366615494e-06</v>
+        <v>4.160293703519055e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.53059895833333</v>
       </c>
       <c r="AH11" t="n">
-        <v>374546.6144137457</v>
+        <v>428078.1427157458</v>
       </c>
     </row>
     <row r="12">
@@ -4437,28 +4437,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>303.6282000094005</v>
+        <v>346.8803798413896</v>
       </c>
       <c r="AB12" t="n">
-        <v>415.4374983836664</v>
+        <v>474.6170389812974</v>
       </c>
       <c r="AC12" t="n">
-        <v>375.7887266081195</v>
+        <v>429.3202549101194</v>
       </c>
       <c r="AD12" t="n">
-        <v>303628.2000094005</v>
+        <v>346880.3798413896</v>
       </c>
       <c r="AE12" t="n">
-        <v>415437.4983836664</v>
+        <v>474617.0389812974</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.885757366615494e-06</v>
+        <v>4.160293703519055e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.53059895833333</v>
       </c>
       <c r="AH12" t="n">
-        <v>375788.7266081195</v>
+        <v>429320.2549101195</v>
       </c>
     </row>
   </sheetData>
@@ -4734,28 +4734,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>732.0802865867497</v>
+        <v>816.1691812822083</v>
       </c>
       <c r="AB2" t="n">
-        <v>1001.664545210821</v>
+        <v>1116.718680673361</v>
       </c>
       <c r="AC2" t="n">
-        <v>906.0670868609179</v>
+        <v>1010.140617114406</v>
       </c>
       <c r="AD2" t="n">
-        <v>732080.2865867497</v>
+        <v>816169.1812822083</v>
       </c>
       <c r="AE2" t="n">
-        <v>1001664.545210821</v>
+        <v>1116718.680673361</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.688127582339927e-06</v>
+        <v>2.471355274953704e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.62630208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>906067.086860918</v>
+        <v>1010140.617114407</v>
       </c>
     </row>
     <row r="3">
@@ -4840,28 +4840,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>425.4036239141367</v>
+        <v>475.9082547527059</v>
       </c>
       <c r="AB3" t="n">
-        <v>582.0560057226674</v>
+        <v>651.1586697430585</v>
       </c>
       <c r="AC3" t="n">
-        <v>526.5053974572301</v>
+        <v>589.013000209713</v>
       </c>
       <c r="AD3" t="n">
-        <v>425403.6239141367</v>
+        <v>475908.2547527059</v>
       </c>
       <c r="AE3" t="n">
-        <v>582056.0057226673</v>
+        <v>651158.6697430585</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.399578993915388e-06</v>
+        <v>3.512893377443062e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.10221354166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>526505.39745723</v>
+        <v>589013.000209713</v>
       </c>
     </row>
     <row r="4">
@@ -4946,28 +4946,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>352.1216630742879</v>
+        <v>402.6262044043061</v>
       </c>
       <c r="AB4" t="n">
-        <v>481.7883939296458</v>
+        <v>550.8909354804885</v>
       </c>
       <c r="AC4" t="n">
-        <v>435.8071858072574</v>
+        <v>498.314677778514</v>
       </c>
       <c r="AD4" t="n">
-        <v>352121.6630742879</v>
+        <v>402626.2044043061</v>
       </c>
       <c r="AE4" t="n">
-        <v>481788.3939296458</v>
+        <v>550890.9354804885</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.671951106411016e-06</v>
+        <v>3.911635903783001e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.767578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>435807.1858072574</v>
+        <v>498314.677778514</v>
       </c>
     </row>
     <row r="5">
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>326.6464926262431</v>
+        <v>368.7336999098092</v>
       </c>
       <c r="AB5" t="n">
-        <v>446.9321418374305</v>
+        <v>504.5177155993477</v>
       </c>
       <c r="AC5" t="n">
-        <v>404.277565493666</v>
+        <v>456.3672529176063</v>
       </c>
       <c r="AD5" t="n">
-        <v>326646.492626243</v>
+        <v>368733.6999098092</v>
       </c>
       <c r="AE5" t="n">
-        <v>446932.1418374305</v>
+        <v>504517.7155993477</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.804466900150024e-06</v>
+        <v>4.105634040711509e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.2109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>404277.565493666</v>
+        <v>456367.2529176063</v>
       </c>
     </row>
     <row r="6">
@@ -5158,28 +5158,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>300.1784795886804</v>
+        <v>350.597680064127</v>
       </c>
       <c r="AB6" t="n">
-        <v>410.7174387131132</v>
+        <v>479.7032131417582</v>
       </c>
       <c r="AC6" t="n">
-        <v>371.5191428078786</v>
+        <v>433.9210117471962</v>
       </c>
       <c r="AD6" t="n">
-        <v>300178.4795886804</v>
+        <v>350597.680064127</v>
       </c>
       <c r="AE6" t="n">
-        <v>410717.4387131132</v>
+        <v>479703.2131417582</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.894581503326769e-06</v>
+        <v>4.237558429745256e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.86263020833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>371519.1428078786</v>
+        <v>433921.0117471962</v>
       </c>
     </row>
     <row r="7">
@@ -5264,28 +5264,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>285.3102472698742</v>
+        <v>335.7294477453207</v>
       </c>
       <c r="AB7" t="n">
-        <v>390.3740673144066</v>
+        <v>459.3598417430517</v>
       </c>
       <c r="AC7" t="n">
-        <v>353.1173142233635</v>
+        <v>415.5191831626811</v>
       </c>
       <c r="AD7" t="n">
-        <v>285310.2472698742</v>
+        <v>335729.4477453207</v>
       </c>
       <c r="AE7" t="n">
-        <v>390374.0673144066</v>
+        <v>459359.8417430517</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.956203279132518e-06</v>
+        <v>4.327770391378192e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.634765625</v>
       </c>
       <c r="AH7" t="n">
-        <v>353117.3142233635</v>
+        <v>415519.1831626811</v>
       </c>
     </row>
     <row r="8">
@@ -5370,28 +5370,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>280.4250211857461</v>
+        <v>330.8442216611926</v>
       </c>
       <c r="AB8" t="n">
-        <v>383.6898854651383</v>
+        <v>452.6756598937834</v>
       </c>
       <c r="AC8" t="n">
-        <v>347.0710613084812</v>
+        <v>409.4729302477988</v>
       </c>
       <c r="AD8" t="n">
-        <v>280425.0211857461</v>
+        <v>330844.2216611926</v>
       </c>
       <c r="AE8" t="n">
-        <v>383689.8854651384</v>
+        <v>452675.6598937834</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.971077500878733e-06</v>
+        <v>4.349545692462004e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.58268229166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>347071.0613084812</v>
+        <v>409472.9302477988</v>
       </c>
     </row>
     <row r="9">
@@ -5476,28 +5476,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>280.9517638035713</v>
+        <v>323.124222433158</v>
       </c>
       <c r="AB9" t="n">
-        <v>384.410597953091</v>
+        <v>442.1128163676577</v>
       </c>
       <c r="AC9" t="n">
-        <v>347.7229900081101</v>
+        <v>399.9181896827626</v>
       </c>
       <c r="AD9" t="n">
-        <v>280951.7638035713</v>
+        <v>323124.222433158</v>
       </c>
       <c r="AE9" t="n">
-        <v>384410.597953091</v>
+        <v>442112.8163676577</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.977355581485901e-06</v>
+        <v>4.358736566296081e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.55989583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>347722.9900081101</v>
+        <v>399918.1896827626</v>
       </c>
     </row>
   </sheetData>
@@ -5773,28 +5773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>317.5477633694726</v>
+        <v>364.1515852834628</v>
       </c>
       <c r="AB2" t="n">
-        <v>434.4828590607121</v>
+        <v>498.2482642189501</v>
       </c>
       <c r="AC2" t="n">
-        <v>393.0164247924797</v>
+        <v>450.6961491777236</v>
       </c>
       <c r="AD2" t="n">
-        <v>317547.7633694726</v>
+        <v>364151.5852834628</v>
       </c>
       <c r="AE2" t="n">
-        <v>434482.8590607122</v>
+        <v>498248.2642189501</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.694178056797915e-06</v>
+        <v>4.168226004117658e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.02083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>393016.4247924797</v>
+        <v>450696.1491777236</v>
       </c>
     </row>
     <row r="3">
@@ -5879,28 +5879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>235.5980335999786</v>
+        <v>274.4345667797319</v>
       </c>
       <c r="AB3" t="n">
-        <v>322.3556234230215</v>
+        <v>375.4934814666333</v>
       </c>
       <c r="AC3" t="n">
-        <v>291.5904551525831</v>
+        <v>339.6569106038682</v>
       </c>
       <c r="AD3" t="n">
-        <v>235598.0335999786</v>
+        <v>274434.5667797319</v>
       </c>
       <c r="AE3" t="n">
-        <v>322355.6234230215</v>
+        <v>375493.4814666333</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.182617730108106e-06</v>
+        <v>4.923902468261239e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.02213541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>291590.4551525831</v>
+        <v>339656.9106038682</v>
       </c>
     </row>
     <row r="4">
@@ -5985,28 +5985,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>226.7776284942909</v>
+        <v>273.2960200451612</v>
       </c>
       <c r="AB4" t="n">
-        <v>310.2871560286156</v>
+        <v>373.9356715952568</v>
       </c>
       <c r="AC4" t="n">
-        <v>280.6737853480951</v>
+        <v>338.247775920216</v>
       </c>
       <c r="AD4" t="n">
-        <v>226777.6284942909</v>
+        <v>273296.0200451612</v>
       </c>
       <c r="AE4" t="n">
-        <v>310287.1560286157</v>
+        <v>373935.6715952568</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.198568540269162e-06</v>
+        <v>4.948580340435389e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.97005208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>280673.7853480951</v>
+        <v>338247.775920216</v>
       </c>
     </row>
   </sheetData>
@@ -6282,28 +6282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>428.6596301986213</v>
+        <v>492.7460134380063</v>
       </c>
       <c r="AB2" t="n">
-        <v>586.5110171659585</v>
+        <v>674.1968340057734</v>
       </c>
       <c r="AC2" t="n">
-        <v>530.5352288610212</v>
+        <v>609.8524344094612</v>
       </c>
       <c r="AD2" t="n">
-        <v>428659.6301986213</v>
+        <v>492746.0134380063</v>
       </c>
       <c r="AE2" t="n">
-        <v>586511.0171659585</v>
+        <v>674196.8340057734</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.286264342086594e-06</v>
+        <v>3.455217510453608e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.68098958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>530535.2288610212</v>
+        <v>609852.4344094612</v>
       </c>
     </row>
     <row r="3">
@@ -6388,28 +6388,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>292.049488177197</v>
+        <v>340.1782812476645</v>
       </c>
       <c r="AB3" t="n">
-        <v>399.5949940381311</v>
+        <v>465.4469320096404</v>
       </c>
       <c r="AC3" t="n">
-        <v>361.4582086422275</v>
+        <v>421.0253300775115</v>
       </c>
       <c r="AD3" t="n">
-        <v>292049.4881771969</v>
+        <v>340178.2812476645</v>
       </c>
       <c r="AE3" t="n">
-        <v>399594.9940381311</v>
+        <v>465446.9320096404</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.882627332734598e-06</v>
+        <v>4.356497301220438e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.64388020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>361458.2086422275</v>
+        <v>421025.3300775115</v>
       </c>
     </row>
     <row r="4">
@@ -6494,28 +6494,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>250.4463733075522</v>
+        <v>298.4898255234512</v>
       </c>
       <c r="AB4" t="n">
-        <v>342.6717768734293</v>
+        <v>408.406947722907</v>
       </c>
       <c r="AC4" t="n">
-        <v>309.9676634315909</v>
+        <v>369.4291618349833</v>
       </c>
       <c r="AD4" t="n">
-        <v>250446.3733075522</v>
+        <v>298489.8255234512</v>
       </c>
       <c r="AE4" t="n">
-        <v>342671.7768734293</v>
+        <v>408406.9477229071</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.097808792188676e-06</v>
+        <v>4.68169974301338e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>309967.6634315909</v>
+        <v>369429.1618349833</v>
       </c>
     </row>
     <row r="5">
@@ -6600,28 +6600,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>245.1274080243971</v>
+        <v>293.1708602402961</v>
       </c>
       <c r="AB5" t="n">
-        <v>335.3941339168332</v>
+        <v>401.1293047663073</v>
       </c>
       <c r="AC5" t="n">
-        <v>303.384588504534</v>
+        <v>362.8460869079252</v>
       </c>
       <c r="AD5" t="n">
-        <v>245127.4080243972</v>
+        <v>293170.8602402961</v>
       </c>
       <c r="AE5" t="n">
-        <v>335394.1339168332</v>
+        <v>401129.3047663072</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.131730545978993e-06</v>
+        <v>4.732965484915572e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.71614583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>303384.5885045339</v>
+        <v>362846.0869079252</v>
       </c>
     </row>
   </sheetData>
@@ -6897,28 +6897,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.4065302949823</v>
+        <v>290.1475300458301</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.8300883863675</v>
+        <v>396.9926510143241</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.8287606527614</v>
+        <v>359.1042295842013</v>
       </c>
       <c r="AD2" t="n">
-        <v>237406.5302949823</v>
+        <v>290147.5300458301</v>
       </c>
       <c r="AE2" t="n">
-        <v>324830.0883863675</v>
+        <v>396992.6510143241</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.04696028672863e-06</v>
+        <v>4.815684140225236e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.95963541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>293828.7606527614</v>
+        <v>359104.2295842014</v>
       </c>
     </row>
     <row r="3">
@@ -7003,28 +7003,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>219.6748948838086</v>
+        <v>264.857172506066</v>
       </c>
       <c r="AB3" t="n">
-        <v>300.5688825522669</v>
+        <v>362.3892680965887</v>
       </c>
       <c r="AC3" t="n">
-        <v>271.8830102526435</v>
+        <v>327.8033449659817</v>
       </c>
       <c r="AD3" t="n">
-        <v>219674.8948838086</v>
+        <v>264857.172506066</v>
       </c>
       <c r="AE3" t="n">
-        <v>300568.8825522669</v>
+        <v>362389.2680965887</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.219115054040215e-06</v>
+        <v>5.087772682441409e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.318359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>271883.0102526435</v>
+        <v>327803.3449659817</v>
       </c>
     </row>
   </sheetData>
@@ -7300,28 +7300,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>799.8489838649758</v>
+        <v>884.420218188787</v>
       </c>
       <c r="AB2" t="n">
-        <v>1094.388666570808</v>
+        <v>1210.102760392183</v>
       </c>
       <c r="AC2" t="n">
-        <v>989.94174821743</v>
+        <v>1094.612251330243</v>
       </c>
       <c r="AD2" t="n">
-        <v>799848.9838649759</v>
+        <v>884420.218188787</v>
       </c>
       <c r="AE2" t="n">
-        <v>1094388.666570808</v>
+        <v>1210102.760392183</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.604716154198816e-06</v>
+        <v>2.339493678796403e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.41731770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>989941.74821743</v>
+        <v>1094612.251330243</v>
       </c>
     </row>
     <row r="3">
@@ -7406,28 +7406,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>444.0863633408955</v>
+        <v>503.2350497073856</v>
       </c>
       <c r="AB3" t="n">
-        <v>607.6185540306515</v>
+        <v>688.5483961731595</v>
       </c>
       <c r="AC3" t="n">
-        <v>549.6282920319619</v>
+        <v>622.8343036261359</v>
       </c>
       <c r="AD3" t="n">
-        <v>444086.3633408955</v>
+        <v>503235.0497073856</v>
       </c>
       <c r="AE3" t="n">
-        <v>607618.5540306515</v>
+        <v>688548.3961731595</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.33906642768604e-06</v>
+        <v>3.410092873769621e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.3203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>549628.292031962</v>
+        <v>622834.3036261359</v>
       </c>
     </row>
     <row r="4">
@@ -7512,28 +7512,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>367.5623703459731</v>
+        <v>426.7109672039122</v>
       </c>
       <c r="AB4" t="n">
-        <v>502.9150508146939</v>
+        <v>583.8447704876536</v>
       </c>
       <c r="AC4" t="n">
-        <v>454.9175442106457</v>
+        <v>528.123445023593</v>
       </c>
       <c r="AD4" t="n">
-        <v>367562.3703459731</v>
+        <v>426710.9672039122</v>
       </c>
       <c r="AE4" t="n">
-        <v>502915.0508146939</v>
+        <v>583844.7704876536</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.611097642134775e-06</v>
+        <v>3.806683451469554e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.93359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>454917.5442106457</v>
+        <v>528123.445023593</v>
       </c>
     </row>
     <row r="5">
@@ -7618,28 +7618,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>340.1855754128391</v>
+        <v>390.8600791268889</v>
       </c>
       <c r="AB5" t="n">
-        <v>465.4569122082283</v>
+        <v>534.7920037911143</v>
       </c>
       <c r="AC5" t="n">
-        <v>421.0343577799535</v>
+        <v>483.752205534581</v>
       </c>
       <c r="AD5" t="n">
-        <v>340185.5754128391</v>
+        <v>390860.0791268889</v>
       </c>
       <c r="AE5" t="n">
-        <v>465456.9122082284</v>
+        <v>534792.0037911143</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.751420569784966e-06</v>
+        <v>4.011258323710265e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.32486979166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>421034.3577799535</v>
+        <v>483752.205534581</v>
       </c>
     </row>
     <row r="6">
@@ -7724,28 +7724,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>313.8421977375011</v>
+        <v>364.6019527975715</v>
       </c>
       <c r="AB6" t="n">
-        <v>429.4127406850309</v>
+        <v>498.8644769205661</v>
       </c>
       <c r="AC6" t="n">
-        <v>388.4301913986176</v>
+        <v>451.2535514039573</v>
       </c>
       <c r="AD6" t="n">
-        <v>313842.1977375011</v>
+        <v>364601.9527975715</v>
       </c>
       <c r="AE6" t="n">
-        <v>429412.7406850309</v>
+        <v>498864.4769205661</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.837566978301455e-06</v>
+        <v>4.136849991525163e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.97981770833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>388430.1913986176</v>
+        <v>451253.5514039573</v>
       </c>
     </row>
     <row r="7">
@@ -7830,28 +7830,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>297.9414394867215</v>
+        <v>348.7011945467918</v>
       </c>
       <c r="AB7" t="n">
-        <v>407.656621754369</v>
+        <v>477.1083579899042</v>
       </c>
       <c r="AC7" t="n">
-        <v>368.7504459237933</v>
+        <v>431.5738059291331</v>
       </c>
       <c r="AD7" t="n">
-        <v>297941.4394867215</v>
+        <v>348701.1945467918</v>
       </c>
       <c r="AE7" t="n">
-        <v>407656.6217543691</v>
+        <v>477108.3579899042</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.907441287431496e-06</v>
+        <v>4.238718788752802e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.71614583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>368750.4459237934</v>
+        <v>431573.8059291331</v>
       </c>
     </row>
     <row r="8">
@@ -7936,28 +7936,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>288.383636019046</v>
+        <v>339.1433910791163</v>
       </c>
       <c r="AB8" t="n">
-        <v>394.5792133893657</v>
+        <v>464.0309496249009</v>
       </c>
       <c r="AC8" t="n">
-        <v>356.921127058888</v>
+        <v>419.7444870642278</v>
       </c>
       <c r="AD8" t="n">
-        <v>288383.636019046</v>
+        <v>339143.3910791163</v>
       </c>
       <c r="AE8" t="n">
-        <v>394579.2133893658</v>
+        <v>464030.9496249009</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.944388524861901e-06</v>
+        <v>4.292583659615636e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.58268229166667</v>
       </c>
       <c r="AH8" t="n">
-        <v>356921.127058888</v>
+        <v>419744.4870642278</v>
       </c>
     </row>
     <row r="9">
@@ -8042,28 +8042,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>286.5947409654956</v>
+        <v>337.3544960255659</v>
       </c>
       <c r="AB9" t="n">
-        <v>392.1315682566183</v>
+        <v>461.5833044921534</v>
       </c>
       <c r="AC9" t="n">
-        <v>354.7070817423185</v>
+        <v>417.5304417476582</v>
       </c>
       <c r="AD9" t="n">
-        <v>286594.7409654956</v>
+        <v>337354.496025566</v>
       </c>
       <c r="AE9" t="n">
-        <v>392131.5682566183</v>
+        <v>461583.3044921534</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.949174436446151e-06</v>
+        <v>4.299560974494242e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.56640625</v>
       </c>
       <c r="AH9" t="n">
-        <v>354707.0817423185</v>
+        <v>417530.4417476582</v>
       </c>
     </row>
     <row r="10">
@@ -8148,28 +8148,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>287.5404673069853</v>
+        <v>338.3002223670556</v>
       </c>
       <c r="AB10" t="n">
-        <v>393.425552759546</v>
+        <v>462.8772889950811</v>
       </c>
       <c r="AC10" t="n">
-        <v>355.8775701804054</v>
+        <v>418.7009301857451</v>
       </c>
       <c r="AD10" t="n">
-        <v>287540.4673069853</v>
+        <v>338300.2223670556</v>
       </c>
       <c r="AE10" t="n">
-        <v>393425.552759546</v>
+        <v>462877.2889950812</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.949365872909521e-06</v>
+        <v>4.299840067089386e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.56315104166667</v>
       </c>
       <c r="AH10" t="n">
-        <v>355877.5701804054</v>
+        <v>418700.9301857451</v>
       </c>
     </row>
   </sheetData>
@@ -8445,28 +8445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.1985491834222</v>
+        <v>256.8107210696843</v>
       </c>
       <c r="AB2" t="n">
-        <v>290.3394165319095</v>
+        <v>351.3797582567814</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.62983011212</v>
+        <v>317.8445672934472</v>
       </c>
       <c r="AD2" t="n">
-        <v>212198.5491834222</v>
+        <v>256810.7210696844</v>
       </c>
       <c r="AE2" t="n">
-        <v>290339.4165319095</v>
+        <v>351379.7582567814</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.187392772252319e-06</v>
+        <v>5.106951932309202e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.69921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>262629.83011212</v>
+        <v>317844.5672934472</v>
       </c>
     </row>
     <row r="3">
@@ -8551,28 +8551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.4051773141139</v>
+        <v>257.0173492003761</v>
       </c>
       <c r="AB3" t="n">
-        <v>290.6221342561116</v>
+        <v>351.6624759809834</v>
       </c>
       <c r="AC3" t="n">
-        <v>262.8855656535211</v>
+        <v>318.1003028348483</v>
       </c>
       <c r="AD3" t="n">
-        <v>212405.1773141139</v>
+        <v>257017.3492003761</v>
       </c>
       <c r="AE3" t="n">
-        <v>290622.1342561116</v>
+        <v>351662.4759809834</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.202169903164109e-06</v>
+        <v>5.130628367143627e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.64388020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>262885.5656535211</v>
+        <v>318100.3028348483</v>
       </c>
     </row>
   </sheetData>
@@ -8848,28 +8848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>564.8816196419676</v>
+        <v>630.6620708717303</v>
       </c>
       <c r="AB2" t="n">
-        <v>772.8959528123764</v>
+        <v>862.899668213631</v>
       </c>
       <c r="AC2" t="n">
-        <v>699.1318478422454</v>
+        <v>780.545734966612</v>
       </c>
       <c r="AD2" t="n">
-        <v>564881.6196419676</v>
+        <v>630662.0708717303</v>
       </c>
       <c r="AE2" t="n">
-        <v>772895.9528123764</v>
+        <v>862899.668213631</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.963697141498763e-06</v>
+        <v>2.915782341777029e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.49739583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>699131.8478422454</v>
+        <v>780545.7349666121</v>
       </c>
     </row>
     <row r="3">
@@ -8954,28 +8954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>356.9545720266897</v>
+        <v>406.2685976125065</v>
       </c>
       <c r="AB3" t="n">
-        <v>488.400993171217</v>
+        <v>555.8746185589956</v>
       </c>
       <c r="AC3" t="n">
-        <v>441.7886878580544</v>
+        <v>502.8227251386514</v>
       </c>
       <c r="AD3" t="n">
-        <v>356954.5720266897</v>
+        <v>406268.5976125065</v>
       </c>
       <c r="AE3" t="n">
-        <v>488400.993171217</v>
+        <v>555874.6185589957</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.625460988403277e-06</v>
+        <v>3.898397887959425e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.33723958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>441788.6878580544</v>
+        <v>502822.7251386514</v>
       </c>
     </row>
     <row r="4">
@@ -9060,28 +9060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>307.3860561748652</v>
+        <v>356.6147409061104</v>
       </c>
       <c r="AB4" t="n">
-        <v>420.5791629741685</v>
+        <v>487.9360212397495</v>
       </c>
       <c r="AC4" t="n">
-        <v>380.4396779464758</v>
+        <v>441.3680921951339</v>
       </c>
       <c r="AD4" t="n">
-        <v>307386.0561748652</v>
+        <v>356614.7409061104</v>
       </c>
       <c r="AE4" t="n">
-        <v>420579.1629741685</v>
+        <v>487936.0212397495</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.859416898790121e-06</v>
+        <v>4.245785729925563e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>380439.6779464758</v>
+        <v>441368.0921951339</v>
       </c>
     </row>
     <row r="5">
@@ -9166,28 +9166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>275.1718468653497</v>
+        <v>324.4857829426155</v>
       </c>
       <c r="AB5" t="n">
-        <v>376.5022606062773</v>
+        <v>443.9757635245075</v>
       </c>
       <c r="AC5" t="n">
-        <v>340.5694132782551</v>
+        <v>401.6033397776255</v>
       </c>
       <c r="AD5" t="n">
-        <v>275171.8468653497</v>
+        <v>324485.7829426154</v>
       </c>
       <c r="AE5" t="n">
-        <v>376502.2606062773</v>
+        <v>443975.7635245075</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.993063341856701e-06</v>
+        <v>4.444229741733527e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.82356770833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>340569.4132782551</v>
+        <v>401603.3397776255</v>
       </c>
     </row>
     <row r="6">
@@ -9272,28 +9272,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>263.6821539566255</v>
+        <v>312.9960900338913</v>
       </c>
       <c r="AB6" t="n">
-        <v>360.7815558790843</v>
+        <v>428.2550587973145</v>
       </c>
       <c r="AC6" t="n">
-        <v>326.3490705460775</v>
+        <v>387.3829970454481</v>
       </c>
       <c r="AD6" t="n">
-        <v>263682.1539566255</v>
+        <v>312996.0900338913</v>
       </c>
       <c r="AE6" t="n">
-        <v>360781.5558790843</v>
+        <v>428255.0587973145</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.047497150015613e-06</v>
+        <v>4.525055411472139e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.62825520833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>326349.0705460776</v>
+        <v>387382.997045448</v>
       </c>
     </row>
     <row r="7">
@@ -9378,28 +9378,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>263.7611837610494</v>
+        <v>313.0751198383151</v>
       </c>
       <c r="AB7" t="n">
-        <v>360.8896879440459</v>
+        <v>428.363190862276</v>
       </c>
       <c r="AC7" t="n">
-        <v>326.4468826385236</v>
+        <v>387.480809137894</v>
       </c>
       <c r="AD7" t="n">
-        <v>263761.1837610494</v>
+        <v>313075.1198383151</v>
       </c>
       <c r="AE7" t="n">
-        <v>360889.6879440459</v>
+        <v>428363.1908622761</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.054562598606625e-06</v>
+        <v>4.53554649474717e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.60546875</v>
       </c>
       <c r="AH7" t="n">
-        <v>326446.8826385236</v>
+        <v>387480.809137894</v>
       </c>
     </row>
   </sheetData>
@@ -9675,28 +9675,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>670.3927942922766</v>
+        <v>753.8071737996005</v>
       </c>
       <c r="AB2" t="n">
-        <v>917.2609967934336</v>
+        <v>1031.392230818057</v>
       </c>
       <c r="AC2" t="n">
-        <v>829.7188946433621</v>
+        <v>932.957603876869</v>
       </c>
       <c r="AD2" t="n">
-        <v>670392.7942922766</v>
+        <v>753807.1737996005</v>
       </c>
       <c r="AE2" t="n">
-        <v>917260.9967934336</v>
+        <v>1031392.230818057</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.773779437870205e-06</v>
+        <v>2.608240634073063e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.89388020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>829718.8946433621</v>
+        <v>932957.6038768691</v>
       </c>
     </row>
     <row r="3">
@@ -9781,28 +9781,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>395.2245308066093</v>
+        <v>453.6487328035647</v>
       </c>
       <c r="AB3" t="n">
-        <v>540.7636391253267</v>
+        <v>620.7022097914423</v>
       </c>
       <c r="AC3" t="n">
-        <v>489.1539163737389</v>
+        <v>561.4632620499693</v>
       </c>
       <c r="AD3" t="n">
-        <v>395224.5308066093</v>
+        <v>453648.7328035646</v>
       </c>
       <c r="AE3" t="n">
-        <v>540763.6391253266</v>
+        <v>620702.2097914424</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.477558020903799e-06</v>
+        <v>3.643106558476062e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>489153.9163737389</v>
+        <v>561463.2620499693</v>
       </c>
     </row>
     <row r="4">
@@ -9887,28 +9887,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>337.1687714282266</v>
+        <v>387.3198081581069</v>
       </c>
       <c r="AB4" t="n">
-        <v>461.3291879044829</v>
+        <v>529.9480488658944</v>
       </c>
       <c r="AC4" t="n">
-        <v>417.30057769046</v>
+        <v>479.3705508688907</v>
       </c>
       <c r="AD4" t="n">
-        <v>337168.7714282266</v>
+        <v>387319.8081581069</v>
       </c>
       <c r="AE4" t="n">
-        <v>461329.1879044829</v>
+        <v>529948.0488658944</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.730969012494865e-06</v>
+        <v>4.015732845193074e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.62109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>417300.57769046</v>
+        <v>479370.5508688907</v>
       </c>
     </row>
     <row r="5">
@@ -9993,28 +9993,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>312.4393660834326</v>
+        <v>354.2319862002171</v>
       </c>
       <c r="AB5" t="n">
-        <v>427.4933245273697</v>
+        <v>484.6758311314278</v>
       </c>
       <c r="AC5" t="n">
-        <v>386.693961625126</v>
+        <v>438.4190500550448</v>
       </c>
       <c r="AD5" t="n">
-        <v>312439.3660834326</v>
+        <v>354231.9862002172</v>
       </c>
       <c r="AE5" t="n">
-        <v>427493.3245273697</v>
+        <v>484675.8311314278</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.867473586649344e-06</v>
+        <v>4.216454969627018e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.06770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>386693.961625126</v>
+        <v>438419.0500550448</v>
       </c>
     </row>
     <row r="6">
@@ -10099,28 +10099,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>286.3691195381192</v>
+        <v>336.4348154134278</v>
       </c>
       <c r="AB6" t="n">
-        <v>391.8228630659669</v>
+        <v>460.324956905181</v>
       </c>
       <c r="AC6" t="n">
-        <v>354.4278389417925</v>
+        <v>416.3921890882844</v>
       </c>
       <c r="AD6" t="n">
-        <v>286369.1195381192</v>
+        <v>336434.8154134278</v>
       </c>
       <c r="AE6" t="n">
-        <v>391822.8630659669</v>
+        <v>460324.9569051809</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.951911416090615e-06</v>
+        <v>4.340615940884013e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.751953125</v>
       </c>
       <c r="AH6" t="n">
-        <v>354427.8389417925</v>
+        <v>416392.1890882844</v>
       </c>
     </row>
     <row r="7">
@@ -10205,28 +10205,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>274.4887895032802</v>
+        <v>324.5544853785888</v>
       </c>
       <c r="AB7" t="n">
-        <v>375.5676713891299</v>
+        <v>444.0697652283438</v>
       </c>
       <c r="AC7" t="n">
-        <v>339.7240199442879</v>
+        <v>401.6883700907799</v>
       </c>
       <c r="AD7" t="n">
-        <v>274488.7895032802</v>
+        <v>324554.4853785888</v>
       </c>
       <c r="AE7" t="n">
-        <v>375567.6713891299</v>
+        <v>444069.7652283438</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.999688017044682e-06</v>
+        <v>4.410868684435893e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.57942708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>339724.019944288</v>
+        <v>401688.3700907798</v>
       </c>
     </row>
     <row r="8">
@@ -10311,28 +10311,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>274.0808074459102</v>
+        <v>315.9586789087155</v>
       </c>
       <c r="AB8" t="n">
-        <v>375.0094523393383</v>
+        <v>432.3086035960457</v>
       </c>
       <c r="AC8" t="n">
-        <v>339.2190765371431</v>
+        <v>391.0496772177742</v>
       </c>
       <c r="AD8" t="n">
-        <v>274080.8074459102</v>
+        <v>315958.6789087154</v>
       </c>
       <c r="AE8" t="n">
-        <v>375009.4523393383</v>
+        <v>432308.6035960456</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.005635716347128e-06</v>
+        <v>4.419614434143372e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.55989583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>339219.0765371431</v>
+        <v>391049.6772177742</v>
       </c>
     </row>
   </sheetData>
@@ -10608,28 +10608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>953.2050854649965</v>
+        <v>1047.436440556025</v>
       </c>
       <c r="AB2" t="n">
-        <v>1304.217250373667</v>
+        <v>1433.148747603199</v>
       </c>
       <c r="AC2" t="n">
-        <v>1179.744586478411</v>
+        <v>1296.371042568849</v>
       </c>
       <c r="AD2" t="n">
-        <v>953205.0854649965</v>
+        <v>1047436.440556025</v>
       </c>
       <c r="AE2" t="n">
-        <v>1304217.250373667</v>
+        <v>1433148.747603199</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.448295800932687e-06</v>
+        <v>2.095354546308419e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.15234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1179744.586478411</v>
+        <v>1296371.042568849</v>
       </c>
     </row>
     <row r="3">
@@ -10714,28 +10714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>487.0025746671833</v>
+        <v>547.0765411254876</v>
       </c>
       <c r="AB3" t="n">
-        <v>666.3384076968977</v>
+        <v>748.5342588815024</v>
       </c>
       <c r="AC3" t="n">
-        <v>602.7440052781338</v>
+        <v>677.0951997882817</v>
       </c>
       <c r="AD3" t="n">
-        <v>487002.5746671833</v>
+        <v>547076.5411254875</v>
       </c>
       <c r="AE3" t="n">
-        <v>666338.4076968976</v>
+        <v>748534.2588815024</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.210888618851822e-06</v>
+        <v>3.198652869054349e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.857421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>602744.0052781338</v>
+        <v>677095.1997882817</v>
       </c>
     </row>
     <row r="4">
@@ -10820,28 +10820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>407.4910603619762</v>
+        <v>458.8977802659307</v>
       </c>
       <c r="AB4" t="n">
-        <v>557.5472460240703</v>
+        <v>627.8841881010824</v>
       </c>
       <c r="AC4" t="n">
-        <v>504.3357193860067</v>
+        <v>567.9598024297069</v>
       </c>
       <c r="AD4" t="n">
-        <v>407491.0603619762</v>
+        <v>458897.7802659307</v>
       </c>
       <c r="AE4" t="n">
-        <v>557547.2460240703</v>
+        <v>627884.1881010823</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.49576686886308e-06</v>
+        <v>3.610806888917601e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.275390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>504335.7193860067</v>
+        <v>567959.8024297069</v>
       </c>
     </row>
     <row r="5">
@@ -10926,28 +10926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>366.9141163641228</v>
+        <v>418.4060876140979</v>
       </c>
       <c r="AB5" t="n">
-        <v>502.028081117779</v>
+        <v>572.4816678474403</v>
       </c>
       <c r="AC5" t="n">
-        <v>454.1152256567345</v>
+        <v>517.844820951147</v>
       </c>
       <c r="AD5" t="n">
-        <v>366914.1163641228</v>
+        <v>418406.0876140979</v>
       </c>
       <c r="AE5" t="n">
-        <v>502028.081117779</v>
+        <v>572481.6678474403</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.647193728548615e-06</v>
+        <v>3.829887106281319e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.572265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>454115.2256567345</v>
+        <v>517844.820951147</v>
       </c>
     </row>
     <row r="6">
@@ -11032,28 +11032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>346.0139913437191</v>
+        <v>388.924056893916</v>
       </c>
       <c r="AB6" t="n">
-        <v>473.4316080164218</v>
+        <v>532.1430527606879</v>
       </c>
       <c r="AC6" t="n">
-        <v>428.2479598127688</v>
+        <v>481.3560666726723</v>
       </c>
       <c r="AD6" t="n">
-        <v>346013.9913437191</v>
+        <v>388924.056893916</v>
       </c>
       <c r="AE6" t="n">
-        <v>473431.6080164218</v>
+        <v>532143.0527606879</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.747799889520545e-06</v>
+        <v>3.975441333976665e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.14908854166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>428247.9598127688</v>
+        <v>481356.0666726723</v>
       </c>
     </row>
     <row r="7">
@@ -11138,28 +11138,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>323.9004564279464</v>
+        <v>375.3070868233499</v>
       </c>
       <c r="AB7" t="n">
-        <v>443.1748939643542</v>
+        <v>513.5117135718177</v>
       </c>
       <c r="AC7" t="n">
-        <v>400.8789040842656</v>
+        <v>464.5028763467392</v>
       </c>
       <c r="AD7" t="n">
-        <v>323900.4564279465</v>
+        <v>375307.0868233499</v>
       </c>
       <c r="AE7" t="n">
-        <v>443174.8939643542</v>
+        <v>513511.7135718177</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.808502390761794e-06</v>
+        <v>4.06326404385833e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.908203125</v>
       </c>
       <c r="AH7" t="n">
-        <v>400878.9040842656</v>
+        <v>464502.8763467392</v>
       </c>
     </row>
     <row r="8">
@@ -11244,28 +11244,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>311.1267155011012</v>
+        <v>362.5333458965047</v>
       </c>
       <c r="AB8" t="n">
-        <v>425.6972980905674</v>
+        <v>496.0341176980309</v>
       </c>
       <c r="AC8" t="n">
-        <v>385.0693454307132</v>
+        <v>448.6933176931869</v>
       </c>
       <c r="AD8" t="n">
-        <v>311126.7155011012</v>
+        <v>362533.3458965047</v>
       </c>
       <c r="AE8" t="n">
-        <v>425697.2980905673</v>
+        <v>496034.1176980309</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.859887763905549e-06</v>
+        <v>4.13760698896746e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.712890625</v>
       </c>
       <c r="AH8" t="n">
-        <v>385069.3454307131</v>
+        <v>448693.3176931869</v>
       </c>
     </row>
     <row r="9">
@@ -11350,28 +11350,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>301.7817014285235</v>
+        <v>353.188331823927</v>
       </c>
       <c r="AB9" t="n">
-        <v>412.9110375635424</v>
+        <v>483.247857171006</v>
       </c>
       <c r="AC9" t="n">
-        <v>373.5033876627582</v>
+        <v>437.1273599252318</v>
       </c>
       <c r="AD9" t="n">
-        <v>301781.7014285235</v>
+        <v>353188.331823927</v>
       </c>
       <c r="AE9" t="n">
-        <v>412911.0375635424</v>
+        <v>483247.857171006</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.889909621108586e-06</v>
+        <v>4.181041786567848e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.60221354166667</v>
       </c>
       <c r="AH9" t="n">
-        <v>373503.3876627582</v>
+        <v>437127.3599252318</v>
       </c>
     </row>
     <row r="10">
@@ -11456,28 +11456,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>298.0277606889763</v>
+        <v>341.0230775851938</v>
       </c>
       <c r="AB10" t="n">
-        <v>407.7747302315166</v>
+        <v>466.602819628432</v>
       </c>
       <c r="AC10" t="n">
-        <v>368.8572822936483</v>
+        <v>422.0709014042641</v>
       </c>
       <c r="AD10" t="n">
-        <v>298027.7606889763</v>
+        <v>341023.0775851938</v>
       </c>
       <c r="AE10" t="n">
-        <v>407774.7302315166</v>
+        <v>466602.819628432</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.902803020597037e-06</v>
+        <v>4.199695602465194e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.55338541666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>368857.2822936483</v>
+        <v>422070.9014042642</v>
       </c>
     </row>
     <row r="11">
@@ -11562,28 +11562,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>299.0839906109584</v>
+        <v>342.0793075071759</v>
       </c>
       <c r="AB11" t="n">
-        <v>409.2199106083481</v>
+        <v>468.0480000052635</v>
       </c>
       <c r="AC11" t="n">
-        <v>370.1645366836383</v>
+        <v>423.3781557942542</v>
       </c>
       <c r="AD11" t="n">
-        <v>299083.9906109584</v>
+        <v>342079.3075071759</v>
       </c>
       <c r="AE11" t="n">
-        <v>409219.9106083481</v>
+        <v>468048.0000052635</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.902520683381961e-06</v>
+        <v>4.199287124744815e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.55338541666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>370164.5366836383</v>
+        <v>423378.1557942542</v>
       </c>
     </row>
   </sheetData>
@@ -11859,28 +11859,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>474.5967325655772</v>
+        <v>539.1926142305764</v>
       </c>
       <c r="AB2" t="n">
-        <v>649.3641872263536</v>
+        <v>737.747122289578</v>
       </c>
       <c r="AC2" t="n">
-        <v>587.3897805858305</v>
+        <v>667.3375723728492</v>
       </c>
       <c r="AD2" t="n">
-        <v>474596.7325655771</v>
+        <v>539192.6142305764</v>
       </c>
       <c r="AE2" t="n">
-        <v>649364.1872263536</v>
+        <v>737747.122289578</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.170598805994577e-06</v>
+        <v>3.259554830204389e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.27018229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>587389.7805858306</v>
+        <v>667337.5723728492</v>
       </c>
     </row>
     <row r="3">
@@ -11965,28 +11965,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>311.2014474711856</v>
+        <v>359.7763028703793</v>
       </c>
       <c r="AB3" t="n">
-        <v>425.7995496689787</v>
+        <v>492.2618097975322</v>
       </c>
       <c r="AC3" t="n">
-        <v>385.1618382619919</v>
+        <v>445.2810335642442</v>
       </c>
       <c r="AD3" t="n">
-        <v>311201.4474711856</v>
+        <v>359776.3028703793</v>
       </c>
       <c r="AE3" t="n">
-        <v>425799.5496689787</v>
+        <v>492261.8097975322</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.790653533163157e-06</v>
+        <v>4.190681473853e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>385161.8382619919</v>
+        <v>445281.0335642442</v>
       </c>
     </row>
     <row r="4">
@@ -12071,28 +12071,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>275.5018102034409</v>
+        <v>315.9809458779866</v>
       </c>
       <c r="AB4" t="n">
-        <v>376.9537310024089</v>
+        <v>432.3390702457519</v>
       </c>
       <c r="AC4" t="n">
-        <v>340.9777959734225</v>
+        <v>391.0772361731926</v>
       </c>
       <c r="AD4" t="n">
-        <v>275501.8102034409</v>
+        <v>315980.9458779866</v>
       </c>
       <c r="AE4" t="n">
-        <v>376953.7310024089</v>
+        <v>432339.0702457519</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.011999834782943e-06</v>
+        <v>4.523073809368941e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.00260416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>340977.7959734225</v>
+        <v>391077.2361731926</v>
       </c>
     </row>
     <row r="5">
@@ -12177,28 +12177,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>251.5542371294583</v>
+        <v>300.0437516740834</v>
       </c>
       <c r="AB5" t="n">
-        <v>344.1876050300629</v>
+        <v>410.5330980365856</v>
       </c>
       <c r="AC5" t="n">
-        <v>311.338823076434</v>
+        <v>371.3523953467949</v>
       </c>
       <c r="AD5" t="n">
-        <v>251554.2371294583</v>
+        <v>300043.7516740834</v>
       </c>
       <c r="AE5" t="n">
-        <v>344187.6050300629</v>
+        <v>410533.0980365856</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.100171820616768e-06</v>
+        <v>4.655480323884491e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.69010416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>311338.823076434</v>
+        <v>371352.3953467949</v>
       </c>
     </row>
     <row r="6">
@@ -12283,28 +12283,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>251.9960160809711</v>
+        <v>300.4855306255962</v>
       </c>
       <c r="AB6" t="n">
-        <v>344.7920664814341</v>
+        <v>411.1375594879572</v>
       </c>
       <c r="AC6" t="n">
-        <v>311.8855955752535</v>
+        <v>371.8991678456146</v>
       </c>
       <c r="AD6" t="n">
-        <v>251996.0160809711</v>
+        <v>300485.5306255962</v>
       </c>
       <c r="AE6" t="n">
-        <v>344792.0664814341</v>
+        <v>411137.5594879572</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.105364397149706e-06</v>
+        <v>4.663277936171203e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.673828125</v>
       </c>
       <c r="AH6" t="n">
-        <v>311885.5955752535</v>
+        <v>371899.1678456145</v>
       </c>
     </row>
   </sheetData>
@@ -12580,28 +12580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>350.536383518807</v>
+        <v>405.5437274633701</v>
       </c>
       <c r="AB2" t="n">
-        <v>479.6193445042388</v>
+        <v>554.882819241933</v>
       </c>
       <c r="AC2" t="n">
-        <v>433.8451474147312</v>
+        <v>501.9255817564103</v>
       </c>
       <c r="AD2" t="n">
-        <v>350536.383518807</v>
+        <v>405543.7274633701</v>
       </c>
       <c r="AE2" t="n">
-        <v>479619.3445042388</v>
+        <v>554882.8192419331</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.545703337442378e-06</v>
+        <v>3.904464217419608e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.56119791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>433845.1474147312</v>
+        <v>501925.5817564103</v>
       </c>
     </row>
     <row r="3">
@@ -12686,28 +12686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>252.5341989308303</v>
+        <v>291.8252483997866</v>
       </c>
       <c r="AB3" t="n">
-        <v>345.5284319995628</v>
+        <v>399.2881792819175</v>
       </c>
       <c r="AC3" t="n">
-        <v>312.5516834018277</v>
+        <v>361.1806758557299</v>
       </c>
       <c r="AD3" t="n">
-        <v>252534.1989308303</v>
+        <v>291825.2483997867</v>
       </c>
       <c r="AE3" t="n">
-        <v>345528.4319995628</v>
+        <v>399288.1792819175</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.089885474026007e-06</v>
+        <v>4.739101800204261e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>312551.6834018278</v>
+        <v>361180.6758557298</v>
       </c>
     </row>
     <row r="4">
@@ -12792,28 +12792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>232.9648376431702</v>
+        <v>280.0286487410841</v>
       </c>
       <c r="AB4" t="n">
-        <v>318.7527685465112</v>
+        <v>383.1475511996338</v>
       </c>
       <c r="AC4" t="n">
-        <v>288.3314516888471</v>
+        <v>346.5804866641054</v>
       </c>
       <c r="AD4" t="n">
-        <v>232964.8376431702</v>
+        <v>280028.6487410841</v>
       </c>
       <c r="AE4" t="n">
-        <v>318752.7685465112</v>
+        <v>383147.5511996337</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.174837703884413e-06</v>
+        <v>4.869397006559845e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.87565104166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>288331.4516888471</v>
+        <v>346580.4866641054</v>
       </c>
     </row>
   </sheetData>
@@ -22918,28 +22918,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>277.3793793195971</v>
+        <v>323.303688514125</v>
       </c>
       <c r="AB2" t="n">
-        <v>379.5227038996373</v>
+        <v>442.3583697771215</v>
       </c>
       <c r="AC2" t="n">
-        <v>343.3015897029155</v>
+        <v>400.1403078194635</v>
       </c>
       <c r="AD2" t="n">
-        <v>277379.3793195972</v>
+        <v>323303.6885141251</v>
       </c>
       <c r="AE2" t="n">
-        <v>379522.7038996373</v>
+        <v>442358.3697771215</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.859638675785234e-06</v>
+        <v>4.468129023496205e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.490234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>343301.5897029155</v>
+        <v>400140.3078194635</v>
       </c>
     </row>
     <row r="3">
@@ -23024,28 +23024,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>226.2904473847898</v>
+        <v>264.6318373438007</v>
       </c>
       <c r="AB3" t="n">
-        <v>309.6205733416829</v>
+        <v>362.0809545864915</v>
       </c>
       <c r="AC3" t="n">
-        <v>280.0708203772484</v>
+        <v>327.5244564645674</v>
       </c>
       <c r="AD3" t="n">
-        <v>226290.4473847898</v>
+        <v>264631.8373438007</v>
       </c>
       <c r="AE3" t="n">
-        <v>309620.5733416829</v>
+        <v>362080.9545864916</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.215324407106766e-06</v>
+        <v>5.023880962655027e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.10677083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>280070.8203772483</v>
+        <v>327524.4564645675</v>
       </c>
     </row>
   </sheetData>
@@ -23321,28 +23321,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>210.1653256388592</v>
+        <v>253.8306112478262</v>
       </c>
       <c r="AB2" t="n">
-        <v>287.5574703787476</v>
+        <v>347.3022405253506</v>
       </c>
       <c r="AC2" t="n">
-        <v>260.1133889953291</v>
+        <v>314.1562021314708</v>
       </c>
       <c r="AD2" t="n">
-        <v>210165.3256388592</v>
+        <v>253830.6112478262</v>
       </c>
       <c r="AE2" t="n">
-        <v>287557.4703787476</v>
+        <v>347302.2405253506</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.134853756376154e-06</v>
+        <v>5.108796347511384e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.2265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>260113.3889953291</v>
+        <v>314156.2021314708</v>
       </c>
     </row>
   </sheetData>
@@ -23618,28 +23618,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>620.5027580399565</v>
+        <v>695.0069265923549</v>
       </c>
       <c r="AB2" t="n">
-        <v>848.9992481999481</v>
+        <v>950.9391385052791</v>
       </c>
       <c r="AC2" t="n">
-        <v>767.9719515296731</v>
+        <v>860.1828417777976</v>
       </c>
       <c r="AD2" t="n">
-        <v>620502.7580399564</v>
+        <v>695006.9265923549</v>
       </c>
       <c r="AE2" t="n">
-        <v>848999.2481999481</v>
+        <v>950939.1385052791</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.865147378324473e-06</v>
+        <v>2.755532934800863e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>767971.9515296731</v>
+        <v>860182.8417777977</v>
       </c>
     </row>
     <row r="3">
@@ -23724,28 +23724,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>375.8839850237387</v>
+        <v>433.8790136437154</v>
       </c>
       <c r="AB3" t="n">
-        <v>514.301051140542</v>
+        <v>593.6524078584827</v>
       </c>
       <c r="AC3" t="n">
-        <v>465.2168806457467</v>
+        <v>536.9950552488557</v>
       </c>
       <c r="AD3" t="n">
-        <v>375883.9850237386</v>
+        <v>433879.0136437154</v>
       </c>
       <c r="AE3" t="n">
-        <v>514301.051140542</v>
+        <v>593652.4078584827</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.550347772114425e-06</v>
+        <v>3.767834844005954e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.568359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>465216.8806457467</v>
+        <v>536995.0552488557</v>
       </c>
     </row>
     <row r="4">
@@ -23830,28 +23830,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>321.3676674767563</v>
+        <v>370.9802491114912</v>
       </c>
       <c r="AB4" t="n">
-        <v>439.7094203825733</v>
+        <v>507.591543327845</v>
       </c>
       <c r="AC4" t="n">
-        <v>397.7441704373073</v>
+        <v>459.1477188418401</v>
       </c>
       <c r="AD4" t="n">
-        <v>321367.6674767563</v>
+        <v>370980.2491114912</v>
       </c>
       <c r="AE4" t="n">
-        <v>439709.4203825733</v>
+        <v>507591.543327845</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.800084506614471e-06</v>
+        <v>4.136791101801888e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.44856770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>397744.1704373073</v>
+        <v>459147.71884184</v>
       </c>
     </row>
     <row r="5">
@@ -23936,28 +23936,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>289.7784223813987</v>
+        <v>339.4762553621542</v>
       </c>
       <c r="AB5" t="n">
-        <v>396.487621623968</v>
+        <v>464.486389221889</v>
       </c>
       <c r="AC5" t="n">
-        <v>358.6473994900477</v>
+        <v>420.1564601452929</v>
       </c>
       <c r="AD5" t="n">
-        <v>289778.4223813987</v>
+        <v>339476.2553621542</v>
       </c>
       <c r="AE5" t="n">
-        <v>396487.6216239681</v>
+        <v>464486.389221889</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.925445257016111e-06</v>
+        <v>4.321996668116645e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.95703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>358647.3994900478</v>
+        <v>420156.4601452929</v>
       </c>
     </row>
     <row r="6">
@@ -24042,28 +24042,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>272.8897882531912</v>
+        <v>322.5876212339468</v>
       </c>
       <c r="AB6" t="n">
-        <v>373.3798473358016</v>
+        <v>441.3786149337226</v>
       </c>
       <c r="AC6" t="n">
-        <v>337.744998747979</v>
+        <v>399.2540594032241</v>
       </c>
       <c r="AD6" t="n">
-        <v>272889.7882531912</v>
+        <v>322587.6212339468</v>
       </c>
       <c r="AE6" t="n">
-        <v>373379.8473358016</v>
+        <v>441378.6149337226</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.009445822681939e-06</v>
+        <v>4.446097491421034e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.65104166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>337744.998747979</v>
+        <v>399254.0594032241</v>
       </c>
     </row>
     <row r="7">
@@ -24148,28 +24148,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>268.8991583835109</v>
+        <v>318.5969913642664</v>
       </c>
       <c r="AB7" t="n">
-        <v>367.9196914939405</v>
+        <v>435.9184590918615</v>
       </c>
       <c r="AC7" t="n">
-        <v>332.8059525162882</v>
+        <v>394.3150131715333</v>
       </c>
       <c r="AD7" t="n">
-        <v>268899.1583835109</v>
+        <v>318596.9913642664</v>
       </c>
       <c r="AE7" t="n">
-        <v>367919.6914939405</v>
+        <v>435918.4590918614</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.024611223751736e-06</v>
+        <v>4.468502563858169e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.59895833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>332805.9525162882</v>
+        <v>394315.0131715334</v>
       </c>
     </row>
   </sheetData>
@@ -24445,28 +24445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>873.4562880903585</v>
+        <v>958.6608651514043</v>
       </c>
       <c r="AB2" t="n">
-        <v>1195.101427537054</v>
+        <v>1311.682088832623</v>
       </c>
       <c r="AC2" t="n">
-        <v>1081.042624628305</v>
+        <v>1186.496991231811</v>
       </c>
       <c r="AD2" t="n">
-        <v>873456.2880903585</v>
+        <v>958660.8651514043</v>
       </c>
       <c r="AE2" t="n">
-        <v>1195101.427537054</v>
+        <v>1311682.088832623</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.524681414126502e-06</v>
+        <v>2.214095108299631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.26041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1081042.624628305</v>
+        <v>1186496.991231811</v>
       </c>
     </row>
     <row r="3">
@@ -24551,28 +24551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>465.7643307453761</v>
+        <v>525.4672106303225</v>
       </c>
       <c r="AB3" t="n">
-        <v>637.2793053978867</v>
+        <v>718.9674195616393</v>
       </c>
       <c r="AC3" t="n">
-        <v>576.4582629178343</v>
+        <v>650.3501781157867</v>
       </c>
       <c r="AD3" t="n">
-        <v>465764.3307453761</v>
+        <v>525467.2106303225</v>
       </c>
       <c r="AE3" t="n">
-        <v>637279.3053978867</v>
+        <v>718967.4195616393</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.272455705737682e-06</v>
+        <v>3.299989765261173e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.59375</v>
       </c>
       <c r="AH3" t="n">
-        <v>576458.2629178343</v>
+        <v>650350.1781157866</v>
       </c>
     </row>
     <row r="4">
@@ -24657,28 +24657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>392.4686897445236</v>
+        <v>443.557335442743</v>
       </c>
       <c r="AB4" t="n">
-        <v>536.9929758050539</v>
+        <v>606.8947147213355</v>
       </c>
       <c r="AC4" t="n">
-        <v>485.7431198685939</v>
+        <v>548.9735349304123</v>
       </c>
       <c r="AD4" t="n">
-        <v>392468.6897445236</v>
+        <v>443557.335442743</v>
       </c>
       <c r="AE4" t="n">
-        <v>536992.975805054</v>
+        <v>606894.7147213354</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.548505885216987e-06</v>
+        <v>3.700861282659793e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.12239583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>485743.1198685939</v>
+        <v>548973.5349304123</v>
       </c>
     </row>
     <row r="5">
@@ -24763,28 +24763,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>353.7438066446339</v>
+        <v>404.7471114882815</v>
       </c>
       <c r="AB5" t="n">
-        <v>484.0078823265167</v>
+        <v>553.7928541206005</v>
       </c>
       <c r="AC5" t="n">
-        <v>437.8148493466026</v>
+        <v>500.939641376482</v>
       </c>
       <c r="AD5" t="n">
-        <v>353743.8066446339</v>
+        <v>404747.1114882815</v>
       </c>
       <c r="AE5" t="n">
-        <v>484007.8823265167</v>
+        <v>553792.8541206005</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.698440324397909e-06</v>
+        <v>3.91859142961401e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.44856770833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>437814.8493466026</v>
+        <v>500939.641376482</v>
       </c>
     </row>
     <row r="6">
@@ -24869,28 +24869,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>334.2809266381702</v>
+        <v>376.9259303502545</v>
       </c>
       <c r="AB6" t="n">
-        <v>457.3779112600072</v>
+        <v>515.7266867036647</v>
       </c>
       <c r="AC6" t="n">
-        <v>413.7264053432815</v>
+        <v>466.5064555516169</v>
       </c>
       <c r="AD6" t="n">
-        <v>334280.9266381702</v>
+        <v>376925.9303502545</v>
       </c>
       <c r="AE6" t="n">
-        <v>457377.9112600072</v>
+        <v>515726.6867036646</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.792291691707992e-06</v>
+        <v>4.054879477296112e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.06119791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>413726.4053432815</v>
+        <v>466506.4555516168</v>
       </c>
     </row>
     <row r="7">
@@ -24975,28 +24975,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>311.779961804261</v>
+        <v>362.8685179939292</v>
       </c>
       <c r="AB7" t="n">
-        <v>426.5910985017434</v>
+        <v>496.4927149484765</v>
       </c>
       <c r="AC7" t="n">
-        <v>385.8778427851034</v>
+        <v>449.1081470656952</v>
       </c>
       <c r="AD7" t="n">
-        <v>311779.961804261</v>
+        <v>362868.5179939292</v>
       </c>
       <c r="AE7" t="n">
-        <v>426591.0985017435</v>
+        <v>496492.7149484765</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.854353162103133e-06</v>
+        <v>4.145003221668301e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.82356770833333</v>
       </c>
       <c r="AH7" t="n">
-        <v>385877.8427851034</v>
+        <v>449108.1470656951</v>
       </c>
     </row>
     <row r="8">
@@ -25081,28 +25081,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>299.0338033866975</v>
+        <v>350.1223595763657</v>
       </c>
       <c r="AB8" t="n">
-        <v>409.1512422340102</v>
+        <v>479.0528586807434</v>
       </c>
       <c r="AC8" t="n">
-        <v>370.1024219225706</v>
+        <v>433.3327262031624</v>
       </c>
       <c r="AD8" t="n">
-        <v>299033.8033866974</v>
+        <v>350122.3595763657</v>
       </c>
       <c r="AE8" t="n">
-        <v>409151.2422340102</v>
+        <v>479052.8586807434</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.903793568946969e-06</v>
+        <v>4.216799048607002e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.63802083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>370102.4219225706</v>
+        <v>433332.7262031624</v>
       </c>
     </row>
     <row r="9">
@@ -25187,28 +25187,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>291.5997462127175</v>
+        <v>334.3300012708224</v>
       </c>
       <c r="AB9" t="n">
-        <v>398.9796372411151</v>
+        <v>457.4450573374219</v>
       </c>
       <c r="AC9" t="n">
-        <v>360.9015806342601</v>
+        <v>413.7871430933079</v>
       </c>
       <c r="AD9" t="n">
-        <v>291599.7462127175</v>
+        <v>334330.0012708224</v>
       </c>
       <c r="AE9" t="n">
-        <v>398979.6372411151</v>
+        <v>457445.0573374219</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.930743809913667e-06</v>
+        <v>4.255935353502571e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.54036458333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>360901.5806342601</v>
+        <v>413787.1430933079</v>
       </c>
     </row>
     <row r="10">
@@ -25293,28 +25293,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>292.381569790287</v>
+        <v>335.1118248483918</v>
       </c>
       <c r="AB10" t="n">
-        <v>400.0493627515676</v>
+        <v>458.5147828478743</v>
       </c>
       <c r="AC10" t="n">
-        <v>361.8692130433643</v>
+        <v>414.7547755024119</v>
       </c>
       <c r="AD10" t="n">
-        <v>292381.569790287</v>
+        <v>335111.8248483918</v>
       </c>
       <c r="AE10" t="n">
-        <v>400049.3627515676</v>
+        <v>458514.7828478743</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.92903569604958e-06</v>
+        <v>4.253454883473978e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.546875</v>
       </c>
       <c r="AH10" t="n">
-        <v>361869.2130433642</v>
+        <v>414754.7755024119</v>
       </c>
     </row>
   </sheetData>
@@ -25590,28 +25590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.4092014486556</v>
+        <v>258.0482570398904</v>
       </c>
       <c r="AB2" t="n">
-        <v>285.1546637869809</v>
+        <v>353.0730095674502</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.9399028923195</v>
+        <v>319.3762170755195</v>
       </c>
       <c r="AD2" t="n">
-        <v>208409.2014486555</v>
+        <v>258048.2570398904</v>
       </c>
       <c r="AE2" t="n">
-        <v>285154.6637869809</v>
+        <v>353073.0095674502</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.943018133167353e-06</v>
+        <v>4.905835885789607e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.486328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>257939.9028923195</v>
+        <v>319376.2170755195</v>
       </c>
     </row>
   </sheetData>
@@ -25887,28 +25887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>392.9808261612724</v>
+        <v>448.4933616459629</v>
       </c>
       <c r="AB2" t="n">
-        <v>537.6937034443138</v>
+        <v>613.6484035346882</v>
       </c>
       <c r="AC2" t="n">
-        <v>486.3769710454401</v>
+        <v>555.0826611622804</v>
       </c>
       <c r="AD2" t="n">
-        <v>392980.8261612724</v>
+        <v>448493.3616459629</v>
       </c>
       <c r="AE2" t="n">
-        <v>537693.7034443137</v>
+        <v>613648.4035346882</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.40952039241835e-06</v>
+        <v>3.6670650403953e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.11783854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>486376.9710454401</v>
+        <v>555082.6611622804</v>
       </c>
     </row>
     <row r="3">
@@ -25993,28 +25993,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>272.1609317097582</v>
+        <v>319.6455853640612</v>
       </c>
       <c r="AB3" t="n">
-        <v>372.3825936581952</v>
+        <v>437.3531916630831</v>
       </c>
       <c r="AC3" t="n">
-        <v>336.842921561709</v>
+        <v>395.6128168798173</v>
       </c>
       <c r="AD3" t="n">
-        <v>272160.9317097582</v>
+        <v>319645.5853640612</v>
       </c>
       <c r="AE3" t="n">
-        <v>372382.5936581952</v>
+        <v>437353.191663083</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.985276100153449e-06</v>
+        <v>4.543311464491492e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.396484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>336842.921561709</v>
+        <v>395612.8168798173</v>
       </c>
     </row>
     <row r="4">
@@ -26099,28 +26099,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>239.6731315167121</v>
+        <v>287.2430365170387</v>
       </c>
       <c r="AB4" t="n">
-        <v>327.9313521733251</v>
+        <v>393.0185948310206</v>
       </c>
       <c r="AC4" t="n">
-        <v>296.634044176544</v>
+        <v>355.5094517454095</v>
       </c>
       <c r="AD4" t="n">
-        <v>239673.1315167121</v>
+        <v>287243.0365170387</v>
       </c>
       <c r="AE4" t="n">
-        <v>327931.3521733251</v>
+        <v>393018.5948310206</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.149359683588574e-06</v>
+        <v>4.793031356637257e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.80403645833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>296634.0441765439</v>
+        <v>355509.4517454095</v>
       </c>
     </row>
     <row r="5">
@@ -26205,28 +26205,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>239.531033400293</v>
+        <v>287.1009384006196</v>
       </c>
       <c r="AB5" t="n">
-        <v>327.7369272615143</v>
+        <v>392.8241699192097</v>
       </c>
       <c r="AC5" t="n">
-        <v>296.4581749054391</v>
+        <v>355.3335824743047</v>
       </c>
       <c r="AD5" t="n">
-        <v>239531.033400293</v>
+        <v>287100.9384006196</v>
       </c>
       <c r="AE5" t="n">
-        <v>327736.9272615143</v>
+        <v>392824.1699192097</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.154062716234804e-06</v>
+        <v>4.800188933163729e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.78776041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>296458.1749054391</v>
+        <v>355333.5824743047</v>
       </c>
     </row>
   </sheetData>
@@ -26502,28 +26502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>513.9182920562299</v>
+        <v>587.2436007243672</v>
       </c>
       <c r="AB2" t="n">
-        <v>703.1656796662371</v>
+        <v>803.4926018702944</v>
       </c>
       <c r="AC2" t="n">
-        <v>636.0565340981204</v>
+        <v>726.8083956567422</v>
       </c>
       <c r="AD2" t="n">
-        <v>513918.2920562299</v>
+        <v>587243.6007243672</v>
       </c>
       <c r="AE2" t="n">
-        <v>703165.6796662371</v>
+        <v>803492.6018702944</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.065075508089664e-06</v>
+        <v>3.082973309988637e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.86263020833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>636056.5340981204</v>
+        <v>726808.3956567422</v>
       </c>
     </row>
     <row r="3">
@@ -26608,28 +26608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>338.349737333175</v>
+        <v>387.2618129053416</v>
       </c>
       <c r="AB3" t="n">
-        <v>462.9450375561719</v>
+        <v>529.8686972024911</v>
       </c>
       <c r="AC3" t="n">
-        <v>418.7622129192511</v>
+        <v>479.2987724168717</v>
       </c>
       <c r="AD3" t="n">
-        <v>338349.737333175</v>
+        <v>387261.8129053416</v>
       </c>
       <c r="AE3" t="n">
-        <v>462945.0375561719</v>
+        <v>529868.6972024911</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.704229609701784e-06</v>
+        <v>4.037173303412981e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.11263020833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>418762.2129192511</v>
+        <v>479298.7724168717</v>
       </c>
     </row>
     <row r="4">
@@ -26714,28 +26714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>291.7433358429132</v>
+        <v>332.5745311166202</v>
       </c>
       <c r="AB4" t="n">
-        <v>399.1761029078763</v>
+        <v>455.0431456265651</v>
       </c>
       <c r="AC4" t="n">
-        <v>361.0792958935269</v>
+        <v>411.6144664650309</v>
       </c>
       <c r="AD4" t="n">
-        <v>291743.3358429132</v>
+        <v>332574.5311166202</v>
       </c>
       <c r="AE4" t="n">
-        <v>399176.1029078763</v>
+        <v>455043.1456265651</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.93344765810739e-06</v>
+        <v>4.379375379140414e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.16536458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>361079.2958935269</v>
+        <v>411614.466465031</v>
       </c>
     </row>
     <row r="5">
@@ -26820,28 +26820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>261.8978696096591</v>
+        <v>310.8098556732746</v>
       </c>
       <c r="AB5" t="n">
-        <v>358.340219318495</v>
+        <v>425.2637564952657</v>
       </c>
       <c r="AC5" t="n">
-        <v>324.1407317203937</v>
+        <v>384.6771804367878</v>
       </c>
       <c r="AD5" t="n">
-        <v>261897.8696096591</v>
+        <v>310809.8556732745</v>
       </c>
       <c r="AE5" t="n">
-        <v>358340.219318495</v>
+        <v>425263.7564952658</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.053892787142294e-06</v>
+        <v>4.559189200319404e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.72591145833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>324140.7317203936</v>
+        <v>384677.1804367878</v>
       </c>
     </row>
     <row r="6">
@@ -26926,28 +26926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>256.709142267291</v>
+        <v>305.6211283309098</v>
       </c>
       <c r="AB6" t="n">
-        <v>351.2407736580064</v>
+        <v>418.1643108349476</v>
       </c>
       <c r="AC6" t="n">
-        <v>317.7188471897131</v>
+        <v>378.2552959061558</v>
       </c>
       <c r="AD6" t="n">
-        <v>256709.142267291</v>
+        <v>305621.1283309098</v>
       </c>
       <c r="AE6" t="n">
-        <v>351240.7736580065</v>
+        <v>418164.3108349476</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.080859616366483e-06</v>
+        <v>4.599448268052043e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.63151041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>317718.8471897132</v>
+        <v>378255.2959061558</v>
       </c>
     </row>
   </sheetData>
